--- a/data/cint_panelbook.xlsx
+++ b/data/cint_panelbook.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA3"/>
+  <dimension ref="A1:EA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,6 +1891,403 @@
         <v>5199</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2173</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28516</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9493</v>
+      </c>
+      <c r="E4" t="n">
+        <v>780092</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4457673</v>
+      </c>
+      <c r="G4" t="n">
+        <v>865895</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6716</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1496</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14755</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15812</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1278943</v>
+      </c>
+      <c r="N4" t="n">
+        <v>50</v>
+      </c>
+      <c r="O4" t="n">
+        <v>17533</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20915</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3951</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3595316</v>
+      </c>
+      <c r="S4" t="n">
+        <v>253796</v>
+      </c>
+      <c r="T4" t="n">
+        <v>97</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9639</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5683167</v>
+      </c>
+      <c r="W4" t="n">
+        <v>736724</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2405488</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>729952</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>112207</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>230228</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9251</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>531470</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2413</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>538220</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>73756</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>146373</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>334641</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>30882</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>90542</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>703</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15270</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1250397</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6348389</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>278</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>10912450</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>43566</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>816924</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>117534</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>428</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>29699</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>420736</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>549915</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1292</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>3384498</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1364615</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>8489</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>785595</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>92652</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>5148664</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>20436</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>8467</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2521220</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>28594</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>54434</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>233666</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>41005</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>98223</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>6097</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>912</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>107</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>352</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>190783</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>9062</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1870</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>807408</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3189</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>571</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>3464778</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>11489</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1138</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>154364</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>8970</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1880</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>8641</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>3000670</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>508629</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>15341</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>381183</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>302</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>640823</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>19578</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>104474</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>298</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>56991</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>14366</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>479437</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>996816</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>2333142</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>994348</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>46067</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>46099</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>864144</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1720</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1201858</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>20980</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>207047</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>217</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>919396</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>255876</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>131073</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>1373616</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>1009355</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>4230879</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>29660</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>233</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>2832982</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>640281</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>459221</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>17588</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>961746</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>16473</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>1127970</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>17511</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>249555</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>746758</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>22982706</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>77339497</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>69906</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>406</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>168</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>641042</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>273</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>17846</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>5199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/cint_panelbook.xlsx
+++ b/data/cint_panelbook.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA4"/>
+  <dimension ref="A1:EA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2288,6 +2288,403 @@
         <v>5199</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2173</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28516</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9493</v>
+      </c>
+      <c r="E5" t="n">
+        <v>780092</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4457673</v>
+      </c>
+      <c r="G5" t="n">
+        <v>865895</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6716</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1496</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14755</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15812</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20282</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1278943</v>
+      </c>
+      <c r="N5" t="n">
+        <v>50</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17533</v>
+      </c>
+      <c r="P5" t="n">
+        <v>20915</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3951</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3595316</v>
+      </c>
+      <c r="S5" t="n">
+        <v>253796</v>
+      </c>
+      <c r="T5" t="n">
+        <v>97</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9639</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5683167</v>
+      </c>
+      <c r="W5" t="n">
+        <v>736724</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2405488</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>729952</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>112207</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>230228</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9251</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>531470</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2413</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>538220</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>73756</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>146373</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>334641</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30882</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>90542</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>703</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>15270</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1250397</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6348389</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>278</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>10912450</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>43566</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>816924</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>117534</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>428</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>29699</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>420736</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>549915</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1292</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>3384498</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1364615</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>8489</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>785595</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>92652</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>5148664</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>20436</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>8467</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>2521220</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>28594</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>54434</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>233666</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>41005</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>98223</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>6097</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>912</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>107</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>352</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>190783</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>9062</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1870</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>807408</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3189</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>571</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>3464778</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>11489</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1138</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>154364</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>8970</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>1880</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>8641</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>3000670</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>508629</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>15341</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>381183</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>302</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>640823</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>19578</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>104474</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>298</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>56991</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>14366</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>479437</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>996816</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>2333142</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>994348</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>46067</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>46099</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>864144</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1720</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>1201858</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>20980</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>207047</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>217</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>919396</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>255876</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>131073</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1373616</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1009355</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>4230879</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>29660</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>233</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>2832982</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>640281</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>459221</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>17588</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>961746</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>16473</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>1127970</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>17511</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>249555</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>746758</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>22982706</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>77339497</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>69906</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>406</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>168</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>641042</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>273</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>17846</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>5199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
